--- a/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/cab/epic.page.xlsx
+++ b/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/cab/epic.page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09927880-FD15-D64C-AA38-99AC3E427995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2D1FC-DA78-014C-A642-F01D50867075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="55040" yWindow="4960" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
   <si>
     <t>key</t>
   </si>
@@ -347,13 +349,74 @@
   <si>
     <t>modeTree</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PERM_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限集主键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限集名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限集类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发实施管理</t>
+  </si>
+  <si>
+    <t>9615a8df-87f2-4b13-a8f1-bc70a05c47e5</t>
+  </si>
+  <si>
+    <t>ef1a04c7-9667-4a64-b53a-7c03e7fb7ee2</t>
+  </si>
+  <si>
+    <t>186f4de4-1171-4061-a19d-7b99b325e29d</t>
+  </si>
+  <si>
+    <t>cfba0276-9e5d-423e-8e58-bee9345baf5b</t>
+  </si>
+  <si>
+    <t>f36f6c76-c634-4e3b-b346-fca72f918999</t>
+  </si>
+  <si>
+    <t>界面配置/表单管理</t>
+  </si>
+  <si>
+    <t>界面配置/页面配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面配置/列表管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,8 +453,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线 (Body)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线 (Body)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,8 +519,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -477,11 +580,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +683,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" activeCellId="1" sqref="A29:XFD29 A28:XFD28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -921,623 +1072,735 @@
     <col min="15" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="33" customFormat="1">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" s="33" customFormat="1">
+      <c r="A3" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="33" customFormat="1">
+      <c r="A4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="33" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="33" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="33" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="33" customFormat="1">
+      <c r="A8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="33" customFormat="1">
+      <c r="A9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="10" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="22" t="str">
-        <f>A27</f>
+      <c r="B27" s="22" t="str">
+        <f>A37</f>
         <v>70e46edf-6ff4-499f-95fe-c3900497487e</v>
       </c>
-      <c r="C17" s="22" t="str">
-        <f>A5</f>
+      <c r="C27" s="22" t="str">
+        <f>A15</f>
         <v>1ec4fc2e-419f-435a-baa3-bd10c604ebb0</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="12" t="str">
-        <f>B5</f>
+      <c r="G27" s="12" t="str">
+        <f>B15</f>
         <v>页面配置读取</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H27" s="12">
         <v>2</v>
       </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="10" t="s">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="22" t="str">
-        <f>A28</f>
+      <c r="B28" s="22" t="str">
+        <f>A38</f>
         <v>64c9bba6-51ab-4bcc-9c26-2c822f6d53cd</v>
       </c>
-      <c r="C18" s="22" t="str">
-        <f t="shared" ref="C18:C21" si="0">A6</f>
+      <c r="C28" s="22" t="str">
+        <f t="shared" ref="C28:C31" si="0">A16</f>
         <v>4cf1173f-a1f4-46a6-9745-66761dba8431</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="12" t="str">
-        <f>B6</f>
+      <c r="G28" s="12" t="str">
+        <f>B16</f>
         <v>表单配置读取</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H28" s="12">
         <v>2</v>
       </c>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10" t="s">
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="22" t="str">
-        <f>A29</f>
+      <c r="B29" s="22" t="str">
+        <f>A39</f>
         <v>01b8ec36-50f9-49eb-a03d-9a3e9063b76d</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C29" s="22" t="str">
         <f t="shared" si="0"/>
         <v>ae8c51b7-d96c-4a4e-a6f6-3b4aa4ff87ff</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D29" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="12" t="str">
-        <f>B7</f>
+      <c r="G29" s="12" t="str">
+        <f>B17</f>
         <v>按模型读取表单</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H29" s="12">
         <v>2</v>
       </c>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="10" t="s">
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="22" t="str">
-        <f>A30</f>
+      <c r="B30" s="22" t="str">
+        <f>A40</f>
         <v>f6559926-009c-4e0c-a5fb-563e9406af29</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C30" s="22" t="str">
         <f t="shared" si="0"/>
         <v>db9f9b6d-912d-45e7-88f2-dd27efb98a63</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="12" t="str">
-        <f>B8</f>
+      <c r="G30" s="12" t="str">
+        <f>B18</f>
         <v>按模型读取列表</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H30" s="12">
         <v>2</v>
       </c>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10" t="s">
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="22" t="str">
-        <f>A31</f>
+      <c r="B31" s="22" t="str">
+        <f>A41</f>
         <v>ec941db4-17b7-4071-afb7-2d493856e0bc</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C31" s="22" t="str">
         <f t="shared" si="0"/>
         <v>373cd8d0-cd83-494a-94dd-1161635f1661</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D31" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="12" t="str">
-        <f>B9</f>
+      <c r="G31" s="12" t="str">
+        <f>B19</f>
         <v>检查表单是否存在</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H31" s="12">
         <v>2</v>
       </c>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G35" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H35" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="7" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="12" t="str">
-        <f>B5</f>
+      <c r="B37" s="12" t="str">
+        <f>B15</f>
         <v>页面配置读取</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D37" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G37" s="12">
         <v>2</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="10" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="12" t="str">
-        <f>B6</f>
+      <c r="B38" s="12" t="str">
+        <f>B16</f>
         <v>表单配置读取</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G38" s="12">
         <v>2</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="12" t="str">
-        <f>B7</f>
+      <c r="B39" s="12" t="str">
+        <f>B17</f>
         <v>按模型读取表单</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G39" s="12">
         <v>2</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="10" t="s">
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="12" t="str">
-        <f>B8</f>
+      <c r="B40" s="12" t="str">
+        <f>B18</f>
         <v>按模型读取列表</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F40" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G40" s="12">
         <v>2</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="12" t="str">
-        <f>B9</f>
+      <c r="B41" s="12" t="str">
+        <f>B19</f>
         <v>检查表单是否存在</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D41" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G41" s="12">
         <v>2</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C24:K24"/>
+  <mergeCells count="4">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
